--- a/net18/validation_data/Scenario2.xlsx
+++ b/net18/validation_data/Scenario2.xlsx
@@ -466,7 +466,7 @@
         <v>1.019652819428372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9885159730911255</v>
+        <v>0.9981211423873901</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>1.003076870245051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9886170029640198</v>
+        <v>0.9980431199073792</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +520,7 @@
         <v>0.9963608898239599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999634027481079</v>
+        <v>0.9966030120849609</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>0.9963186213332754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9832988381385803</v>
+        <v>1.00377357006073</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>0.9948829826774235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999828577041626</v>
+        <v>1.005973339080811</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>0.994812367903955</v>
       </c>
       <c r="G7" t="n">
-        <v>1.005778908729553</v>
+        <v>0.9934861660003662</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +628,7 @@
         <v>0.9948326391089537</v>
       </c>
       <c r="G8" t="n">
-        <v>1.006387591362</v>
+        <v>0.9885492920875549</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +655,7 @@
         <v>0.9944136226137342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9995331764221191</v>
+        <v>0.9974955916404724</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>0.9938917514367581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.990571916103363</v>
+        <v>0.995840311050415</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +709,7 @@
         <v>0.9938805636959438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9959259629249573</v>
+        <v>0.9958052039146423</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +736,7 @@
         <v>0.9938239389957582</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9823099374771118</v>
+        <v>0.9937840104103088</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +763,7 @@
         <v>0.9937895740408383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9879021048545837</v>
+        <v>0.9933983683586121</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
         <v>0.9942075818196712</v>
       </c>
       <c r="G14" t="n">
-        <v>1.011804103851318</v>
+        <v>0.9999719262123108</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>0.9942277544716673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9870796203613281</v>
+        <v>1.000558137893677</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +844,7 @@
         <v>0.996140212400265</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999744296073914</v>
+        <v>1.004407525062561</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>0.9960620342791376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9903039336204529</v>
+        <v>0.9897051453590393</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +898,7 @@
         <v>0.9960191286737606</v>
       </c>
       <c r="G18" t="n">
-        <v>1.002195358276367</v>
+        <v>0.9950308799743652</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +925,7 @@
         <v>0.9959847863446655</v>
       </c>
       <c r="G19" t="n">
-        <v>1.000723958015442</v>
+        <v>0.9936397075653076</v>
       </c>
     </row>
     <row r="20">
@@ -1660,7 +1660,7 @@
         <v>1.021360113228625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9900010228157043</v>
+        <v>1.000048398971558</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1687,7 @@
         <v>1.004783743234109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9901414513587952</v>
+        <v>0.9999738335609436</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1714,7 @@
         <v>0.9981182286797644</v>
       </c>
       <c r="G4" t="n">
-        <v>1.00155782699585</v>
+        <v>0.9983891248703003</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1741,7 @@
         <v>0.9980761882114616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.984287440776825</v>
+        <v>1.005804777145386</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1768,7 @@
         <v>0.9966530075876634</v>
       </c>
       <c r="G6" t="n">
-        <v>1.001093506813049</v>
+        <v>1.007598400115967</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +1795,7 @@
         <v>0.9965831469527399</v>
       </c>
       <c r="G7" t="n">
-        <v>1.007253289222717</v>
+        <v>0.9950535297393799</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +1822,7 @@
         <v>0.9966032658232552</v>
       </c>
       <c r="G8" t="n">
-        <v>1.007811665534973</v>
+        <v>0.990659773349762</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +1849,7 @@
         <v>0.9961889639106536</v>
       </c>
       <c r="G9" t="n">
-        <v>1.001082181930542</v>
+        <v>0.9989772439002991</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +1876,7 @@
         <v>0.9956729908920618</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9919677376747131</v>
+        <v>0.9976685047149658</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1903,7 @@
         <v>0.9956619905791942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9977633953094482</v>
+        <v>0.9977731108665466</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +1930,7 @@
         <v>0.9956059354138941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9838399291038513</v>
+        <v>0.9952053427696228</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +1957,7 @@
         <v>0.9955718640441167</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9895750284194946</v>
+        <v>0.995067834854126</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         <v>0.9959875244632148</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0137699842453</v>
+        <v>1.001819491386414</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2011,7 @@
         <v>0.9960076398297225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9886977672576904</v>
+        <v>1.002386450767517</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2038,7 @@
         <v>0.9978974394058229</v>
       </c>
       <c r="G16" t="n">
-        <v>1.001975774765015</v>
+        <v>1.006364822387695</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2065,7 @@
         <v>0.9978191102688809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9920029640197754</v>
+        <v>0.9914928078651428</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2092,7 @@
         <v>0.997775771328971</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00373375415802</v>
+        <v>0.9968952536582947</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2119,7 @@
         <v>0.9977418606710541</v>
       </c>
       <c r="G19" t="n">
-        <v>1.001996636390686</v>
+        <v>0.9953093528747559</v>
       </c>
     </row>
     <row r="20">
@@ -2854,7 +2854,7 @@
         <v>1.020461692291626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.98939448595047</v>
+        <v>0.999210000038147</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +2881,7 @@
         <v>1.003914033876407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9895104765892029</v>
+        <v>0.998903214931488</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +2908,7 @@
         <v>0.9971947367077503</v>
       </c>
       <c r="G4" t="n">
-        <v>1.00075376033783</v>
+        <v>0.9976637959480286</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +2935,7 @@
         <v>0.9971524528977227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9838284850120544</v>
+        <v>1.005215048789978</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +2962,7 @@
         <v>0.9957191198823607</v>
       </c>
       <c r="G6" t="n">
-        <v>1.000285387039185</v>
+        <v>1.006742119789124</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +2989,7 @@
         <v>0.9956488849790047</v>
       </c>
       <c r="G7" t="n">
-        <v>1.006686329841614</v>
+        <v>0.9936344623565674</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3016,7 @@
         <v>0.9956689526579866</v>
       </c>
       <c r="G8" t="n">
-        <v>1.006991147994995</v>
+        <v>0.9898490309715271</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3043,7 @@
         <v>0.9952525998593466</v>
       </c>
       <c r="G9" t="n">
-        <v>1.000257015228271</v>
+        <v>0.9983139634132385</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3070,7 @@
         <v>0.9947339138125287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9907407164573669</v>
+        <v>0.9968945980072021</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3097,7 @@
         <v>0.9947228712193217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9969767332077026</v>
+        <v>0.9968197345733643</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3124,7 @@
         <v>0.9946670236610743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9831192493438721</v>
+        <v>0.9941394925117493</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3151,7 @@
         <v>0.9946330835101538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9886966943740845</v>
+        <v>0.9945316314697266</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3178,7 @@
         <v>0.9950473908051574</v>
       </c>
       <c r="G14" t="n">
-        <v>1.012775540351868</v>
+        <v>1.000686764717102</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3205,7 @@
         <v>0.995067414330135</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878671169281006</v>
+        <v>1.001368045806885</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3232,7 @@
         <v>0.9969724442839482</v>
       </c>
       <c r="G16" t="n">
-        <v>1.001948356628418</v>
+        <v>1.005790591239929</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3259,7 @@
         <v>0.9968935628107701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.990992546081543</v>
+        <v>0.9904484748840332</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3286,7 @@
         <v>0.9968504485260619</v>
       </c>
       <c r="G18" t="n">
-        <v>1.002949237823486</v>
+        <v>0.9961087107658386</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3313,7 @@
         <v>0.9968155605244101</v>
       </c>
       <c r="G19" t="n">
-        <v>1.00161600112915</v>
+        <v>0.9946746826171875</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario2.xlsx
+++ b/net18/validation_data/Scenario2.xlsx
@@ -398,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F42"/>
@@ -441,6 +441,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -466,7 +481,16 @@
         <v>1.019652819428372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9981211423873901</v>
+        <v>1.001238584518433</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.003280758857727</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.003484047560248</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.002901367843151</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +517,16 @@
         <v>1.003076870245051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9980431199073792</v>
+        <v>0.9958935976028442</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.001055240631104</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.001553293987395</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.000766569748521</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +553,16 @@
         <v>0.9963608898239599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966030120849609</v>
+        <v>0.9968465566635132</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9998693466186523</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.000805936497556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9997910596430302</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +589,16 @@
         <v>0.9963186213332754</v>
       </c>
       <c r="G5" t="n">
-        <v>1.00377357006073</v>
+        <v>0.9955615401268005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9996963739395142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.000786427407855</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.000250704586506</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +625,16 @@
         <v>0.9948829826774235</v>
       </c>
       <c r="G6" t="n">
-        <v>1.005973339080811</v>
+        <v>0.9964499473571777</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9992592334747314</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.00060666963648</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9997547771781683</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +661,16 @@
         <v>0.994812367903955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9934861660003662</v>
+        <v>0.9935828447341919</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9994989633560181</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.000615908367428</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.999723594635725</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +697,16 @@
         <v>0.9948326391089537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9885492920875549</v>
+        <v>0.9941142201423645</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9991647005081177</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.000623966182114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9996358714997768</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +733,16 @@
         <v>0.9944136226137342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9974955916404724</v>
+        <v>0.9961951375007629</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9992102980613708</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.000567256549801</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.999712185934186</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +769,16 @@
         <v>0.9938917514367581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.995840311050415</v>
+        <v>0.9944093227386475</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9992414712905884</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.000493090101299</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9995849784463644</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +805,16 @@
         <v>0.9938805636959438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9958052039146423</v>
+        <v>0.9939709901809692</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9995364546775818</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.000494003646859</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9994068574160337</v>
       </c>
     </row>
     <row r="12">
@@ -736,7 +841,16 @@
         <v>0.9938239389957582</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9937840104103088</v>
+        <v>0.994949996471405</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9992461800575256</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.00047822710606</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9996287804096937</v>
       </c>
     </row>
     <row r="13">
@@ -763,7 +877,16 @@
         <v>0.9937895740408383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9933983683586121</v>
+        <v>0.9933212995529175</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.999595582485199</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.000482487450236</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.999556940048933</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +913,16 @@
         <v>0.9942075818196712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999719262123108</v>
+        <v>0.9962669610977173</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9993606209754944</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.000493802632064</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9996976014226675</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +949,16 @@
         <v>0.9942277544716673</v>
       </c>
       <c r="G15" t="n">
-        <v>1.000558137893677</v>
+        <v>0.9987419843673706</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9991539120674133</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.000522848843885</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9996849428862333</v>
       </c>
     </row>
     <row r="16">
@@ -844,7 +985,16 @@
         <v>0.996140212400265</v>
       </c>
       <c r="G16" t="n">
-        <v>1.004407525062561</v>
+        <v>0.9956843852996826</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9997172355651855</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.000773477298091</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.999820988625288</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +1021,16 @@
         <v>0.9960620342791376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9897051453590393</v>
+        <v>0.9983919858932495</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9995560646057129</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.000744147704602</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9997209887951612</v>
       </c>
     </row>
     <row r="18">
@@ -898,7 +1057,16 @@
         <v>0.9960191286737606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9950308799743652</v>
+        <v>0.9961323142051697</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9992417693138123</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.000772291322431</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9996972884982824</v>
       </c>
     </row>
     <row r="19">
@@ -925,7 +1093,16 @@
         <v>0.9959847863446655</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9936397075653076</v>
+        <v>0.9968447089195251</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9993466138839722</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.000760967691581</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9997383747249842</v>
       </c>
     </row>
     <row r="20">
@@ -1592,7 +1769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F45"/>
@@ -1635,6 +1812,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1660,7 +1852,16 @@
         <v>1.021360113228625</v>
       </c>
       <c r="G2" t="n">
-        <v>1.000048398971558</v>
+        <v>1.003205180168152</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.005021095275879</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.005107304103829</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.004619222134352</v>
       </c>
     </row>
     <row r="3">
@@ -1687,7 +1888,16 @@
         <v>1.004783743234109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999738335609436</v>
+        <v>0.9979731440544128</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.002863526344299</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.003199179863398</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.002466248348355</v>
       </c>
     </row>
     <row r="4">
@@ -1714,7 +1924,16 @@
         <v>0.9981182286797644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9983891248703003</v>
+        <v>0.9989657998085022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.002026796340942</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.002452998277767</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.001692758873105</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1960,16 @@
         <v>0.9980761882114616</v>
       </c>
       <c r="G5" t="n">
-        <v>1.005804777145386</v>
+        <v>0.9976564645767212</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.001934170722961</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.002434985929292</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.002175932750106</v>
       </c>
     </row>
     <row r="6">
@@ -1768,7 +1996,16 @@
         <v>0.9966530075876634</v>
       </c>
       <c r="G6" t="n">
-        <v>1.007598400115967</v>
+        <v>0.9985307455062866</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.001473784446716</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.002254480964568</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.001541363075376</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +2032,16 @@
         <v>0.9965831469527399</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9950535297393799</v>
+        <v>0.9956198334693909</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.001758575439453</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.002262960582154</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.001488450914621</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +2068,16 @@
         <v>0.9966032658232552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.990659773349762</v>
+        <v>0.9961872696876526</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.001400351524353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.002270229083444</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.00139981135726</v>
       </c>
     </row>
     <row r="9">
@@ -1849,7 +2104,16 @@
         <v>0.9961889639106536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9989772439002991</v>
+        <v>0.9983062148094177</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.001324653625488</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.002213923186295</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.001411262899637</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +2140,16 @@
         <v>0.9956729908920618</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9976685047149658</v>
+        <v>0.9964657425880432</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.001449704170227</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.002142945662104</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.001303384080529</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +2176,16 @@
         <v>0.9956619905791942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9977731108665466</v>
+        <v>0.996023952960968</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.001644849777222</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.002142871089475</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.001223823055625</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2212,16 @@
         <v>0.9956059354138941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9952053427696228</v>
+        <v>0.9969708323478699</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.001353621482849</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.002125092049416</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.001350037753582</v>
       </c>
     </row>
     <row r="13">
@@ -1957,7 +2248,16 @@
         <v>0.9955718640441167</v>
       </c>
       <c r="G13" t="n">
-        <v>0.995067834854126</v>
+        <v>0.9953761696815491</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.00177526473999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.002128250577641</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.001330073922873</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +2284,16 @@
         <v>0.9959875244632148</v>
       </c>
       <c r="G14" t="n">
-        <v>1.001819491386414</v>
+        <v>0.9982562065124512</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.001182556152344</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.002125583988249</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.001325938850641</v>
       </c>
     </row>
     <row r="15">
@@ -2011,7 +2320,16 @@
         <v>0.9960076398297225</v>
       </c>
       <c r="G15" t="n">
-        <v>1.002386450767517</v>
+        <v>1.00079345703125</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.000994920730591</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.00215368243638</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.001346942037344</v>
       </c>
     </row>
     <row r="16">
@@ -2038,7 +2356,16 @@
         <v>0.9978974394058229</v>
       </c>
       <c r="G16" t="n">
-        <v>1.006364822387695</v>
+        <v>0.9977428913116455</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.001955628395081</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.002421410533614</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.001634927466512</v>
       </c>
     </row>
     <row r="17">
@@ -2065,7 +2392,16 @@
         <v>0.9978191102688809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9914928078651428</v>
+        <v>1.00046718120575</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.00189197063446</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.002393050375884</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.00155190192163</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2428,16 @@
         <v>0.997775771328971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9968952536582947</v>
+        <v>0.9982463717460632</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.001619577407837</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.002420021363951</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.001590453088284</v>
       </c>
     </row>
     <row r="19">
@@ -2119,7 +2464,16 @@
         <v>0.9977418606710541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9953093528747559</v>
+        <v>0.9989312887191772</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.001808166503906</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.002410476437864</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.001613674685359</v>
       </c>
     </row>
     <row r="20">
@@ -2786,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F37"/>
@@ -2829,6 +3183,21 @@
           <t>Valori stimati MLP</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valori stimati autogloun</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Valori stimati h2o</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Valori stimati autosklearn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2854,7 +3223,16 @@
         <v>1.020461692291626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999210000038147</v>
+        <v>1.001989603042603</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.003972053527832</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.00400034281859</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.003459963947535</v>
       </c>
     </row>
     <row r="3">
@@ -2881,7 +3259,16 @@
         <v>1.003914033876407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.998903214931488</v>
+        <v>0.9967927932739258</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.001769304275513</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0021159122846</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.001416083425283</v>
       </c>
     </row>
     <row r="4">
@@ -2908,7 +3295,16 @@
         <v>0.9971947367077503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9976637959480286</v>
+        <v>0.9977542161941528</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.000714182853699</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.001376899028359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.000558389350772</v>
       </c>
     </row>
     <row r="5">
@@ -2935,7 +3331,16 @@
         <v>0.9971524528977227</v>
       </c>
       <c r="G5" t="n">
-        <v>1.005215048789978</v>
+        <v>0.9963975548744202</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.000703692436218</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.001354881648974</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.00092407874763</v>
       </c>
     </row>
     <row r="6">
@@ -2962,7 +3367,16 @@
         <v>0.9957191198823607</v>
       </c>
       <c r="G6" t="n">
-        <v>1.006742119789124</v>
+        <v>0.9972824454307556</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.000296354293823</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.00117770473943</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.000461710616946</v>
       </c>
     </row>
     <row r="7">
@@ -2989,7 +3403,16 @@
         <v>0.9956488849790047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9936344623565674</v>
+        <v>0.9944061040878296</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.000636339187622</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.001188940428211</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.000495631247759</v>
       </c>
     </row>
     <row r="8">
@@ -3016,7 +3439,16 @@
         <v>0.9956689526579866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9898490309715271</v>
+        <v>0.9949374198913574</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.00042724609375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.001194619667166</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.000398155301809</v>
       </c>
     </row>
     <row r="9">
@@ -3043,7 +3475,16 @@
         <v>0.9952525998593466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9983139634132385</v>
+        <v>0.997018039226532</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.000241756439209</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.001139489566476</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.000479029491544</v>
       </c>
     </row>
     <row r="10">
@@ -3070,7 +3511,16 @@
         <v>0.9947339138125287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9968945980072021</v>
+        <v>0.9952759742736816</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.00033712387085</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.001069040137624</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.000368108972907</v>
       </c>
     </row>
     <row r="11">
@@ -3097,7 +3547,16 @@
         <v>0.9947228712193217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9968197345733643</v>
+        <v>0.9947858452796936</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.000495076179504</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.001067216533095</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.000213293358684</v>
       </c>
     </row>
     <row r="12">
@@ -3124,7 +3583,16 @@
         <v>0.9946670236610743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9941394925117493</v>
+        <v>0.9957616329193115</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.000135540962219</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.00105237842364</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.000386167317629</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3619,16 @@
         <v>0.9946330835101538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9945316314697266</v>
+        <v>0.9941908717155457</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.000491976737976</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.001054627890689</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.000412167981267</v>
       </c>
     </row>
     <row r="14">
@@ -3178,7 +3655,16 @@
         <v>0.9950473908051574</v>
       </c>
       <c r="G14" t="n">
-        <v>1.000686764717102</v>
+        <v>0.9969435930252075</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.00047755241394</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.00107095208346</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.000463346019387</v>
       </c>
     </row>
     <row r="15">
@@ -3205,7 +3691,16 @@
         <v>0.995067414330135</v>
       </c>
       <c r="G15" t="n">
-        <v>1.001368045806885</v>
+        <v>0.9995073080062866</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.000162124633789</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.001102643473518</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.000451507046819</v>
       </c>
     </row>
     <row r="16">
@@ -3232,7 +3727,16 @@
         <v>0.9969724442839482</v>
       </c>
       <c r="G16" t="n">
-        <v>1.005790591239929</v>
+        <v>0.9964755773544312</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.000767827033997</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.001343539543161</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.000530855730176</v>
       </c>
     </row>
     <row r="17">
@@ -3259,7 +3763,16 @@
         <v>0.9968935628107701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9904484748840332</v>
+        <v>0.9992461800575256</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.000812172889709</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.001312227043152</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.000460054725409</v>
       </c>
     </row>
     <row r="18">
@@ -3286,7 +3799,16 @@
         <v>0.9968504485260619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9961087107658386</v>
+        <v>0.9969591498374939</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.000396013259888</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.001341229426844</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.000424968078732</v>
       </c>
     </row>
     <row r="19">
@@ -3313,7 +3835,16 @@
         <v>0.9968155605244101</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9946746826171875</v>
+        <v>0.9976725578308105</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.000474095344543</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.001334083376747</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.000515632331371</v>
       </c>
     </row>
     <row r="20">

--- a/net18/validation_data/Scenario2.xlsx
+++ b/net18/validation_data/Scenario2.xlsx
@@ -481,7 +481,7 @@
         <v>1.019652819428372</v>
       </c>
       <c r="G2" t="n">
-        <v>1.001238584518433</v>
+        <v>1.00255012512207</v>
       </c>
       <c r="H2" t="n">
         <v>1.003280758857727</v>
@@ -517,7 +517,7 @@
         <v>1.003076870245051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9958935976028442</v>
+        <v>1.001061081886292</v>
       </c>
       <c r="H3" t="n">
         <v>1.001055240631104</v>
@@ -553,7 +553,7 @@
         <v>0.9963608898239599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9968465566635132</v>
+        <v>1.001938462257385</v>
       </c>
       <c r="H4" t="n">
         <v>0.9998693466186523</v>
@@ -589,7 +589,7 @@
         <v>0.9963186213332754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9955615401268005</v>
+        <v>1.001204490661621</v>
       </c>
       <c r="H5" t="n">
         <v>0.9996963739395142</v>
@@ -625,7 +625,7 @@
         <v>0.9948829826774235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9964499473571777</v>
+        <v>1.000995993614197</v>
       </c>
       <c r="H6" t="n">
         <v>0.9992592334747314</v>
@@ -661,7 +661,7 @@
         <v>0.994812367903955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9935828447341919</v>
+        <v>1.003641247749329</v>
       </c>
       <c r="H7" t="n">
         <v>0.9994989633560181</v>
@@ -697,7 +697,7 @@
         <v>0.9948326391089537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9941142201423645</v>
+        <v>1.002158045768738</v>
       </c>
       <c r="H8" t="n">
         <v>0.9991647005081177</v>
@@ -733,7 +733,7 @@
         <v>0.9944136226137342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9961951375007629</v>
+        <v>0.9991840124130249</v>
       </c>
       <c r="H9" t="n">
         <v>0.9992102980613708</v>
@@ -769,7 +769,7 @@
         <v>0.9938917514367581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9944093227386475</v>
+        <v>1.002244114875793</v>
       </c>
       <c r="H10" t="n">
         <v>0.9992414712905884</v>
@@ -805,7 +805,7 @@
         <v>0.9938805636959438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9939709901809692</v>
+        <v>1.000056982040405</v>
       </c>
       <c r="H11" t="n">
         <v>0.9995364546775818</v>
@@ -841,7 +841,7 @@
         <v>0.9938239389957582</v>
       </c>
       <c r="G12" t="n">
-        <v>0.994949996471405</v>
+        <v>1.00177788734436</v>
       </c>
       <c r="H12" t="n">
         <v>0.9992461800575256</v>
@@ -877,7 +877,7 @@
         <v>0.9937895740408383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9933212995529175</v>
+        <v>1.001028418540955</v>
       </c>
       <c r="H13" t="n">
         <v>0.999595582485199</v>
@@ -913,7 +913,7 @@
         <v>0.9942075818196712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9962669610977173</v>
+        <v>1.002273440361023</v>
       </c>
       <c r="H14" t="n">
         <v>0.9993606209754944</v>
@@ -949,7 +949,7 @@
         <v>0.9942277544716673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9987419843673706</v>
+        <v>1.000492215156555</v>
       </c>
       <c r="H15" t="n">
         <v>0.9991539120674133</v>
@@ -985,7 +985,7 @@
         <v>0.996140212400265</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9956843852996826</v>
+        <v>1.001322269439697</v>
       </c>
       <c r="H16" t="n">
         <v>0.9997172355651855</v>
@@ -1021,7 +1021,7 @@
         <v>0.9960620342791376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9983919858932495</v>
+        <v>1.003811001777649</v>
       </c>
       <c r="H17" t="n">
         <v>0.9995560646057129</v>
@@ -1057,7 +1057,7 @@
         <v>0.9960191286737606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9961323142051697</v>
+        <v>1.001461744308472</v>
       </c>
       <c r="H18" t="n">
         <v>0.9992417693138123</v>
@@ -1093,7 +1093,7 @@
         <v>0.9959847863446655</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9968447089195251</v>
+        <v>1.001087069511414</v>
       </c>
       <c r="H19" t="n">
         <v>0.9993466138839722</v>
@@ -1852,7 +1852,7 @@
         <v>1.021360113228625</v>
       </c>
       <c r="G2" t="n">
-        <v>1.003205180168152</v>
+        <v>1.004274249076843</v>
       </c>
       <c r="H2" t="n">
         <v>1.005021095275879</v>
@@ -1888,7 +1888,7 @@
         <v>1.004783743234109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9979731440544128</v>
+        <v>1.002840757369995</v>
       </c>
       <c r="H3" t="n">
         <v>1.002863526344299</v>
@@ -1924,7 +1924,7 @@
         <v>0.9981182286797644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9989657998085022</v>
+        <v>1.003780245780945</v>
       </c>
       <c r="H4" t="n">
         <v>1.002026796340942</v>
@@ -1960,7 +1960,7 @@
         <v>0.9980761882114616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9976564645767212</v>
+        <v>1.002980828285217</v>
       </c>
       <c r="H5" t="n">
         <v>1.001934170722961</v>
@@ -1996,7 +1996,7 @@
         <v>0.9966530075876634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9985307455062866</v>
+        <v>1.002786755561829</v>
       </c>
       <c r="H6" t="n">
         <v>1.001473784446716</v>
@@ -2032,7 +2032,7 @@
         <v>0.9965831469527399</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9956198334693909</v>
+        <v>1.005443572998047</v>
       </c>
       <c r="H7" t="n">
         <v>1.001758575439453</v>
@@ -2068,7 +2068,7 @@
         <v>0.9966032658232552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9961872696876526</v>
+        <v>1.003925323486328</v>
       </c>
       <c r="H8" t="n">
         <v>1.001400351524353</v>
@@ -2104,7 +2104,7 @@
         <v>0.9961889639106536</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9983062148094177</v>
+        <v>1.000915050506592</v>
       </c>
       <c r="H9" t="n">
         <v>1.001324653625488</v>
@@ -2140,7 +2140,7 @@
         <v>0.9956729908920618</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9964657425880432</v>
+        <v>1.003973245620728</v>
       </c>
       <c r="H10" t="n">
         <v>1.001449704170227</v>
@@ -2176,7 +2176,7 @@
         <v>0.9956619905791942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.996023952960968</v>
+        <v>1.0018390417099</v>
       </c>
       <c r="H11" t="n">
         <v>1.001644849777222</v>
@@ -2212,7 +2212,7 @@
         <v>0.9956059354138941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9969708323478699</v>
+        <v>1.003484725952148</v>
       </c>
       <c r="H12" t="n">
         <v>1.001353621482849</v>
@@ -2248,7 +2248,7 @@
         <v>0.9955718640441167</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9953761696815491</v>
+        <v>1.00285530090332</v>
       </c>
       <c r="H13" t="n">
         <v>1.00177526473999</v>
@@ -2284,7 +2284,7 @@
         <v>0.9959875244632148</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9982562065124512</v>
+        <v>1.003986239433289</v>
       </c>
       <c r="H14" t="n">
         <v>1.001182556152344</v>
@@ -2320,7 +2320,7 @@
         <v>0.9960076398297225</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00079345703125</v>
+        <v>1.002116441726685</v>
       </c>
       <c r="H15" t="n">
         <v>1.000994920730591</v>
@@ -2356,7 +2356,7 @@
         <v>0.9978974394058229</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9977428913116455</v>
+        <v>1.003177762031555</v>
       </c>
       <c r="H16" t="n">
         <v>1.001955628395081</v>
@@ -2392,7 +2392,7 @@
         <v>0.9978191102688809</v>
       </c>
       <c r="G17" t="n">
-        <v>1.00046718120575</v>
+        <v>1.0056312084198</v>
       </c>
       <c r="H17" t="n">
         <v>1.00189197063446</v>
@@ -2428,7 +2428,7 @@
         <v>0.997775771328971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9982463717460632</v>
+        <v>1.003262281417847</v>
       </c>
       <c r="H18" t="n">
         <v>1.001619577407837</v>
@@ -2464,7 +2464,7 @@
         <v>0.9977418606710541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9989312887191772</v>
+        <v>1.002831697463989</v>
       </c>
       <c r="H19" t="n">
         <v>1.001808166503906</v>
@@ -3223,7 +3223,7 @@
         <v>1.020461692291626</v>
       </c>
       <c r="G2" t="n">
-        <v>1.001989603042603</v>
+        <v>1.003432631492615</v>
       </c>
       <c r="H2" t="n">
         <v>1.003972053527832</v>
@@ -3259,7 +3259,7 @@
         <v>1.003914033876407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9967927932739258</v>
+        <v>1.001926183700562</v>
       </c>
       <c r="H3" t="n">
         <v>1.001769304275513</v>
@@ -3295,7 +3295,7 @@
         <v>0.9971947367077503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9977542161941528</v>
+        <v>1.002959251403809</v>
       </c>
       <c r="H4" t="n">
         <v>1.000714182853699</v>
@@ -3331,7 +3331,7 @@
         <v>0.9971524528977227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9963975548744202</v>
+        <v>1.002180337905884</v>
       </c>
       <c r="H5" t="n">
         <v>1.000703692436218</v>
@@ -3367,7 +3367,7 @@
         <v>0.9957191198823607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9972824454307556</v>
+        <v>1.001898884773254</v>
       </c>
       <c r="H6" t="n">
         <v>1.000296354293823</v>
@@ -3403,7 +3403,7 @@
         <v>0.9956488849790047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9944061040878296</v>
+        <v>1.004639387130737</v>
       </c>
       <c r="H7" t="n">
         <v>1.000636339187622</v>
@@ -3439,7 +3439,7 @@
         <v>0.9956689526579866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9949374198913574</v>
+        <v>1.003107309341431</v>
       </c>
       <c r="H8" t="n">
         <v>1.00042724609375</v>
@@ -3475,7 +3475,7 @@
         <v>0.9952525998593466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.997018039226532</v>
+        <v>1.000090718269348</v>
       </c>
       <c r="H9" t="n">
         <v>1.000241756439209</v>
@@ -3511,7 +3511,7 @@
         <v>0.9947339138125287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9952759742736816</v>
+        <v>1.003134846687317</v>
       </c>
       <c r="H10" t="n">
         <v>1.00033712387085</v>
@@ -3547,7 +3547,7 @@
         <v>0.9947228712193217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9947858452796936</v>
+        <v>1.000959634780884</v>
       </c>
       <c r="H11" t="n">
         <v>1.000495076179504</v>
@@ -3583,7 +3583,7 @@
         <v>0.9946670236610743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9957616329193115</v>
+        <v>1.002692341804504</v>
       </c>
       <c r="H12" t="n">
         <v>1.000135540962219</v>
@@ -3619,7 +3619,7 @@
         <v>0.9946330835101538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9941908717155457</v>
+        <v>1.001989483833313</v>
       </c>
       <c r="H13" t="n">
         <v>1.000491976737976</v>
@@ -3655,7 +3655,7 @@
         <v>0.9950473908051574</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9969435930252075</v>
+        <v>1.003225207328796</v>
       </c>
       <c r="H14" t="n">
         <v>1.00047755241394</v>
@@ -3691,7 +3691,7 @@
         <v>0.995067414330135</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9995073080062866</v>
+        <v>1.001347541809082</v>
       </c>
       <c r="H15" t="n">
         <v>1.000162124633789</v>
@@ -3727,7 +3727,7 @@
         <v>0.9969724442839482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9964755773544312</v>
+        <v>1.002285361289978</v>
       </c>
       <c r="H16" t="n">
         <v>1.000767827033997</v>
@@ -3763,7 +3763,7 @@
         <v>0.9968935628107701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9992461800575256</v>
+        <v>1.004806637763977</v>
       </c>
       <c r="H17" t="n">
         <v>1.000812172889709</v>
@@ -3799,7 +3799,7 @@
         <v>0.9968504485260619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9969591498374939</v>
+        <v>1.002399206161499</v>
       </c>
       <c r="H18" t="n">
         <v>1.000396013259888</v>
@@ -3835,7 +3835,7 @@
         <v>0.9968155605244101</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9976725578308105</v>
+        <v>1.002041816711426</v>
       </c>
       <c r="H19" t="n">
         <v>1.000474095344543</v>
